--- a/assets/excel/address_list.xlsx
+++ b/assets/excel/address_list.xlsx
@@ -12,69 +12,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t/>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phone Number</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
     <t>Image</t>
   </si>
   <si>
-    <t xml:space="preserve"> Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Phone Number</t>
-  </si>
-  <si>
-    <t>Anujith7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anujith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anujithsajan05@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> +91 9048503728</t>
-  </si>
-  <si>
-    <t>default_user20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vaishak</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tsvaishak@gmail.com</t>
-  </si>
-  <si>
-    <t>arun10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kunjumon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fgbna@gmail.com</t>
-  </si>
-  <si>
-    <t>default_user19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anujith@sajgmail.com</t>
-  </si>
-  <si>
-    <t>Anjali5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anjali</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anjalilechu489@gmail.com</t>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anujith S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Male</t>
+  </si>
+  <si>
+    <t>Kollam Mynagappally</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anujithsajan@gmail.com</t>
+  </si>
+  <si>
+    <t>Anujith10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kunjumon Popz</t>
+  </si>
+  <si>
+    <t>Kollam Karunagappally</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arunkunjappan@gmail.com</t>
+  </si>
+  <si>
+    <t>arun11.png</t>
   </si>
 </sst>
 </file>
@@ -123,16 +117,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.9296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.5078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.5625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.76953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.4453125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.3046875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.0859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.171875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -148,19 +146,43 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.281223929E9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>690521.0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -168,55 +190,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
-        <v>9.809759347E9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.988776655E9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
-        <v>8.281223929E9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="F3" t="n">
+        <v>6.767676767E9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>690500.0</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.539207856E9</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/address_list.xlsx
+++ b/assets/excel/address_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Address</t>
+  </si>
+  <si>
+    <t>Street</t>
   </si>
   <si>
     <t xml:space="preserve"> Email</t>
@@ -50,25 +53,16 @@
     <t xml:space="preserve"> Male</t>
   </si>
   <si>
-    <t>Kollam Mynagappally</t>
+    <t>Kollam</t>
   </si>
   <si>
-    <t xml:space="preserve"> anujithsajan@gmail.com</t>
+    <t>Kerala Mynagappally</t>
   </si>
   <si>
-    <t>Anujith10.png</t>
+    <t xml:space="preserve"> anujithsajan005@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> Kunjumon Popz</t>
-  </si>
-  <si>
-    <t>Kollam Karunagappally</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arunkunjappan@gmail.com</t>
-  </si>
-  <si>
-    <t>arun11.png</t>
+    <t>Anujith11.png</t>
   </si>
 </sst>
 </file>
@@ -117,20 +111,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.94921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.5625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.55078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.76953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.4453125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="26.3046875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.0859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.67578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.6953125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.04296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.0859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -158,57 +153,37 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
         <v>8.281223929E9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>690521.0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.767676767E9</v>
-      </c>
-      <c r="G3" t="n">
-        <v>690500.0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/address_list.xlsx
+++ b/assets/excel/address_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Genter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth </t>
   </si>
   <si>
     <t xml:space="preserve"> Street</t>
@@ -45,51 +48,6 @@
   </si>
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anujith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Male</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mynagappally</t>
-  </si>
-  <si>
-    <t>Kollam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> anujithsajan005@gmail.com</t>
-  </si>
-  <si>
-    <t>Anujith11.png</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Raichel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> David</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kundara</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raichu@gmail.com</t>
-  </si>
-  <si>
-    <t>default_user24.png</t>
   </si>
 </sst>
 </file>
@@ -138,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -147,13 +105,14 @@
     <col min="1" max="1" width="4.94921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.23828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.93359375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.05078125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="27.04296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.0859375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="8.171875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="18.515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.76953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.9609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.97265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.0859375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="8.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="6.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -187,69 +146,8 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.281223929E9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>690521.0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.678965432E9</v>
-      </c>
-      <c r="I3" t="n">
-        <v>345678.0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/address_list.xlsx
+++ b/assets/excel/address_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t/>
   </si>
@@ -50,85 +50,82 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Hobbies</t>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popz</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karunagappally</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> samp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default_user30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manager</t>
+  </si>
+  <si>
+    <t>Driver</t>
   </si>
   <si>
     <t>Mr.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contact</t>
+    <t xml:space="preserve"> Edited2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S</t>
   </si>
   <si>
     <t xml:space="preserve"> Male</t>
   </si>
   <si>
-    <t xml:space="preserve">  Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sample@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sample23.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sports</t>
-  </si>
-  <si>
-    <t>painting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anujith.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> reading</t>
-  </si>
-  <si>
-    <t>writting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Edited</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> example@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> default_user.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> videogames</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TestStreet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chumma@gmail.com</t>
-  </si>
-  <si>
-    <t>reading</t>
-  </si>
-  <si>
-    <t>learning</t>
+    <t xml:space="preserve"> Mynagappally</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vazhappallilthekkathil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edited1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sample.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AnujithEdited</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anujithtest13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testdata@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -180,27 +177,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="5.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.43359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.05078125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.4609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="10.73828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="20.5703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.32421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.2421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="24.70703125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.5859375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="8.171875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.78125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="12.2421875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="8.33984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="8.05078125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.01171875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="9.57421875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="6.8828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -255,7 +250,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>45506.0</v>
+        <v>45573.0</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -284,101 +279,98 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>45539.0</v>
+        <v>45568.0</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n">
-        <v>1.111111111E9</v>
+        <v>9.048503717E9</v>
       </c>
       <c r="J3" t="n">
-        <v>999999.0</v>
+        <v>690500.0</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n" s="1">
+        <v>45567.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n" s="1">
-        <v>45513.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I4" t="n">
-        <v>1.111111111E9</v>
+        <v>9.048503717E9</v>
       </c>
       <c r="J4" t="n">
-        <v>999999.0</v>
+        <v>690500.0</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n" s="1">
-        <v>45506.0</v>
+        <v>45573.0</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -387,25 +379,19 @@
         <v>36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.222222222E9</v>
+        <v>9.875987543E9</v>
       </c>
       <c r="J5" t="n">
-        <v>222222.0</v>
+        <v>999999.0</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
       <c r="M5" t="s">
         <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
